--- a/src/test/resources/testdata/Client/Mobile.xlsx
+++ b/src/test/resources/testdata/Client/Mobile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\NewFramework_Appium\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B0CFC6-09BD-43BD-B90B-A5E23C93552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8AD37-1DD7-4D71-89DC-EAFF02C7A598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="100">
   <si>
     <t>Steps</t>
   </si>
@@ -184,13 +184,151 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>Your Email Title</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/fragment_onboarding_create_email_title</t>
+  </si>
+  <si>
+    <t>Your email</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Enter your business email address."]</t>
+  </si>
+  <si>
+    <t>Page Text</t>
+  </si>
+  <si>
+    <t>Enter your business email address.</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/valueET</t>
+  </si>
+  <si>
+    <t>Text Field</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Verifies element is enabled</t>
+  </si>
+  <si>
+    <t>Next Step</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/fragment_onboarding_create_email_continue</t>
+  </si>
+  <si>
+    <t>Enters value</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/fragment_onboarding_create_email_password_title</t>
+  </si>
+  <si>
+    <t>Your password</t>
+  </si>
+  <si>
+    <t>Enter a password at least 6 characters long.</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Enter a password at least 6 characters long."]</t>
+  </si>
+  <si>
+    <t>Your Password Title</t>
+  </si>
+  <si>
+    <t>accessibility id</t>
+  </si>
+  <si>
+    <t>Show password</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/fragment_onboarding_create_email_password_continue</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>ssm##123</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/alertTitle</t>
+  </si>
+  <si>
+    <t>Alert Heading</t>
+  </si>
+  <si>
+    <t>We already have an account associated with this email</t>
+  </si>
+  <si>
+    <t>android:id/message</t>
+  </si>
+  <si>
+    <t>Alert Message</t>
+  </si>
+  <si>
+    <t>You can sign in into your existing account or create a new one using another email</t>
+  </si>
+  <si>
+    <t>android:id/button2</t>
+  </si>
+  <si>
+    <t>android:id/button1</t>
+  </si>
+  <si>
+    <t>testting@gmail.com</t>
+  </si>
+  <si>
+    <t>Page Heading</t>
+  </si>
+  <si>
+    <t>Sign In to Your Account</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/fragment_onboarding_bottom_sheet_close</t>
+  </si>
+  <si>
+    <t>Clicks back Button on Mobile</t>
+  </si>
+  <si>
+    <t>Sign In with Google</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/fragment_onboarding_bottom_sheet_button_sign_in_with_qr</t>
+  </si>
+  <si>
+    <t>Sign In with QR Code</t>
+  </si>
+  <si>
+    <t>Sign In with Email</t>
+  </si>
+  <si>
+    <t>com.ecwid.android:id/fragment_onboarding_bottom_sheet_button_sign_in_with_email</t>
+  </si>
+  <si>
+    <t>Accepts alert</t>
+  </si>
+  <si>
+    <t>Dismiss alert</t>
+  </si>
+  <si>
+    <t>Clicks home Button on Mobile</t>
+  </si>
+  <si>
+    <t>Open notification on Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -252,6 +390,12 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -295,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +453,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,7 +838,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A14" sqref="A14:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1151,21 +1301,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EBAA60-C3FF-4345-BA34-C735C32263B1}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1224,87 +1374,96 @@
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1312,54 +1471,681 @@
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId1" xr:uid="{F84AEA02-8BAF-4BE2-9525-7B743CDE66BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/Client/Mobile.xlsx
+++ b/src/test/resources/testdata/Client/Mobile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium - CopyPractice\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8AD37-1DD7-4D71-89DC-EAFF02C7A598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC92FA-4536-41D6-9CC1-A1D902F3618D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="82">
   <si>
     <t>Steps</t>
   </si>
@@ -51,66 +51,18 @@
     <t>Steps Range</t>
   </si>
   <si>
-    <t>Verify Page Title</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Textbox</t>
-  </si>
-  <si>
-    <t>ctl00_content_cmdLogin</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>startNew__103</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>DropDown</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>com.ubercab:id/welcome_screen_continue</t>
-  </si>
-  <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>com.google.android.gms:id/cancel</t>
-  </si>
-  <si>
-    <t>Phone Number Field</t>
-  </si>
-  <si>
-    <t>//android.widget.EditText</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>//android.widget.Button[@text="Continue with Google"]</t>
-  </si>
-  <si>
-    <t>//android.widget.Button[@text="Envelope Continue with Email"]</t>
-  </si>
-  <si>
     <t>Continue with Google</t>
   </si>
   <si>
@@ -123,9 +75,6 @@
     <t>Verifies element</t>
   </si>
   <si>
-    <t>Selects value</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -312,23 +261,20 @@
     <t>com.ecwid.android:id/fragment_onboarding_bottom_sheet_button_sign_in_with_email</t>
   </si>
   <si>
-    <t>Accepts alert</t>
-  </si>
-  <si>
-    <t>Dismiss alert</t>
-  </si>
-  <si>
-    <t>Clicks home Button on Mobile</t>
-  </si>
-  <si>
-    <t>Open notification on Mobile</t>
+    <t>android:id/aerr_wait</t>
+  </si>
+  <si>
+    <t>Clicks element if present</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -379,25 +325,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -434,12 +374,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,17 +401,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,7 +798,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,20 +845,20 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
@@ -906,141 +866,141 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
+      <c r="A6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1050,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1097,84 +1057,84 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>31</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5"/>
@@ -1182,111 +1142,153 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="G7:G8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1301,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EBAA60-C3FF-4345-BA34-C735C32263B1}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1321,25 +1323,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1349,801 +1351,907 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="F20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="F29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="F39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="F41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="F43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" xr:uid="{F84AEA02-8BAF-4BE2-9525-7B743CDE66BF}"/>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{F84AEA02-8BAF-4BE2-9525-7B743CDE66BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
